--- a/biology/Médecine/Paul_Regnard/Paul_Regnard.xlsx
+++ b/biology/Médecine/Paul_Regnard/Paul_Regnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Marie Léon Regnard, né le 7 novembre 1850 à Châtillon-sur-Seine  (Côte-d'Or) et mort à 18 avril 1927 à Paris (5e)[1], est un médecin, physiologiste et biologiste français, directeur de l'Institut national agronomique entre 1901 et 1917.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Marie Léon Regnard, né le 7 novembre 1850 à Châtillon-sur-Seine  (Côte-d'Or) et mort à 18 avril 1927 à Paris (5e), est un médecin, physiologiste et biologiste français, directeur de l'Institut national agronomique entre 1901 et 1917.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est avocat et docteur en droit. Il est interne des hôpitaux (1874), préparateur (1875) puis directeur adjoint du laboratoire de physiologie de la Sorbonne. En 1878, il est docteur en médecine de la Faculté de médecine de Paris. Il est l'élève et collaborateur de Paul Bert.
-Durant sa carrière, il est professeur d'anatomie et de physiologie, puis directeur de l'Institut national agronomique[2].
+Durant sa carrière, il est professeur d'anatomie et de physiologie, puis directeur de l'Institut national agronomique.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Officier de l'Instruction publique (1887)
  Chevalier de l'ordre du Mérite agricole (1889)
-Membre de l'Académie de médecine (1895)[3].
- Officier de la Légion d'honneur (1900)[4]</t>
+Membre de l'Académie de médecine (1895).
+ Officier de la Légion d'honneur (1900)</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dosage de l'urée, appliqué aux recherches chimiques, Paris, Guillaume, 1874, lire en ligne sur Gallica
 Dosage de l'urée, appliqué aux recherches chimiques. Procédé de M. Regnard. Construit par Alvergniat frères, Paris, 10, rue de la Sorbonne, 1877.
